--- a/マトリックス_テンプレート.xlsx
+++ b/マトリックス_テンプレート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cre\Develop_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A8DEA2-02FF-4CB3-8EC8-F83A9C1BB226}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CDEF86-EB5A-4B47-B5AF-AAA14A232491}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{E4926199-CD19-414B-81D5-2FCFFB720DE4}"/>
   </bookViews>
@@ -553,7 +553,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -605,6 +605,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -630,24 +651,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -977,43 +980,43 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
       <c r="I2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A3" s="20"/>
-      <c r="B3" s="22" t="s">
+      <c r="A3" s="27"/>
+      <c r="B3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="17" t="s">
+      <c r="C3" s="30"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17" t="s">
+      <c r="F3" s="24"/>
+      <c r="G3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="25"/>
-      <c r="I3" s="17" t="s">
+      <c r="H3" s="32"/>
+      <c r="I3" s="24" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A4" s="21"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
@@ -1035,7 +1038,7 @@
       <c r="H4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="18"/>
+      <c r="I4" s="25"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="4"/>
@@ -1233,7 +1236,7 @@
   <dimension ref="A2:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1242,43 +1245,43 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="24"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="31"/>
       <c r="I2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A3" s="20"/>
-      <c r="B3" s="17" t="s">
+      <c r="A3" s="27"/>
+      <c r="B3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="17" t="s">
+      <c r="C3" s="32"/>
+      <c r="D3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="22" t="s">
+      <c r="E3" s="24"/>
+      <c r="F3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="17" t="s">
+      <c r="G3" s="30"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="24" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A4" s="21"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1300,25 +1303,29 @@
       <c r="H4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="18"/>
+      <c r="I4" s="25"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A5" s="4"/>
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
       <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="7"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="27"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="19"/>
       <c r="I5" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A6" s="4"/>
+      <c r="A6" s="4">
+        <v>2</v>
+      </c>
       <c r="B6" s="8"/>
       <c r="C6" s="10" t="s">
         <v>14</v>
@@ -1327,15 +1334,17 @@
         <v>14</v>
       </c>
       <c r="E6" s="10"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="31"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="23"/>
       <c r="I6" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A7" s="4"/>
+      <c r="A7" s="17">
+        <v>3</v>
+      </c>
       <c r="B7" s="8"/>
       <c r="C7" s="10" t="s">
         <v>14</v>
@@ -1354,7 +1363,9 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A8" s="4"/>
+      <c r="A8" s="17">
+        <v>4</v>
+      </c>
       <c r="B8" s="8"/>
       <c r="C8" s="10" t="s">
         <v>14</v>
@@ -1373,7 +1384,9 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9" s="4"/>
+      <c r="A9" s="17">
+        <v>5</v>
+      </c>
       <c r="B9" s="8"/>
       <c r="C9" s="10" t="s">
         <v>14</v>
